--- a/Tochinqoa-class Frigate.xlsx
+++ b/Tochinqoa-class Frigate.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffkazmierski/Documents/GitHub/Zdetl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0E5DF6-40C3-FB4D-B8DB-AC0C9B6310BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0449CC21-89B3-EE44-866D-A2461B0255A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="1000" windowWidth="25040" windowHeight="13760" xr2:uid="{62EDD787-9A95-1643-B943-F9B107626E6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>Tochinqoa-class Missile Frigate</t>
   </si>
@@ -192,13 +192,25 @@
   </si>
   <si>
     <t>Officers</t>
+  </si>
+  <si>
+    <t>Flight Crew</t>
+  </si>
+  <si>
+    <t>6. Small Craft</t>
+  </si>
+  <si>
+    <t>2x ship's boat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totals: </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -209,6 +221,21 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -235,9 +262,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01306D6-CBE3-154B-8F7F-9247EFD7027A}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -563,24 +592,24 @@
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -636,15 +665,15 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <f>B6*0.008*B5</f>
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="G6">
         <f>C6*0.5</f>
-        <v>120</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -727,20 +756,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <f>D13</f>
-        <v>3154</v>
+        <v>3250</v>
       </c>
       <c r="C13">
         <f>ROUND(B13/15,0)</f>
-        <v>210</v>
-      </c>
-      <c r="D13">
-        <f>0.2*B5+(D11+D12+SUM(D25:D28)+D22)</f>
-        <v>3154</v>
+        <v>217</v>
+      </c>
+      <c r="D13" s="3">
+        <f>0.2*B5+D11+D12+D22+SUM(D26:D31)</f>
+        <v>3249</v>
       </c>
       <c r="G13">
         <f>C13</f>
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -758,7 +786,7 @@
       </c>
       <c r="C15">
         <f>0.1*C13</f>
-        <v>21</v>
+        <v>21.700000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -767,15 +795,15 @@
       </c>
       <c r="C17">
         <f>C5-(SUM(C6:C8)+SUM(C11:C15))</f>
-        <v>1249</v>
-      </c>
-      <c r="D17">
+        <v>1001.3</v>
+      </c>
+      <c r="D17" s="3">
         <f>D13</f>
-        <v>3154</v>
+        <v>3249</v>
       </c>
       <c r="G17">
         <f>SUM(G5:G8)+SUM(G11:G15)</f>
-        <v>1500</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -831,47 +859,44 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <f>C17-SUM(C20:C22)</f>
+        <v>938.3</v>
+      </c>
+      <c r="D23" s="3">
+        <f>SUM(D20:D22)</f>
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <f>G17+SUM(G20:G22)</f>
+        <v>1751.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25">
-        <v>100</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -896,19 +921,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>20</v>
@@ -916,13 +941,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="D28">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>20</v>
@@ -931,141 +956,345 @@
         <v>10</v>
       </c>
       <c r="G28">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D29">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G29">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="D30">
+        <v>75</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>40</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>10</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>20</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <v>1</v>
       </c>
-      <c r="F30">
+      <c r="F31">
         <v>0</v>
       </c>
-      <c r="G30">
+      <c r="G31">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32">
+        <f>C23-SUM(C26:C31)</f>
+        <v>468.29999999999995</v>
+      </c>
+      <c r="D32" s="3">
+        <f>SUM(D26:D31)</f>
+        <v>245</v>
+      </c>
+      <c r="G32">
+        <f>G23+SUM(G26:G31)</f>
+        <v>2001.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="B34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>42</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>44</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <f>B35*4</f>
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <f>C35*0.5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:C37" si="0">B36*4</f>
+        <v>12</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ref="G36:G46" si="1">C36*0.5</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>45</v>
       </c>
-      <c r="B36">
+      <c r="B38">
         <f>ROUND(SUM(C11:C13)/35,0)</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="C38">
+        <f>B38*2</f>
+        <v>34</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>46</v>
       </c>
-      <c r="B37">
+      <c r="B39">
         <f>3000/500</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="C39">
+        <f t="shared" ref="C39:C40" si="2">B39*2</f>
+        <v>12</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>47</v>
       </c>
-      <c r="B38">
-        <f>SUM(E25:E30)</f>
+      <c r="B40">
+        <f>SUM(E26:E31)</f>
         <v>48</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="C40">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>49</v>
       </c>
-      <c r="B40">
+      <c r="B42">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="C42">
+        <f t="shared" ref="C42:C46" si="3">B42*4</f>
+        <v>12</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>30</v>
       </c>
-      <c r="B41">
+      <c r="B43">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="C43">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>50</v>
       </c>
-      <c r="B42">
-        <f>ROUND(SUM(B33:B41)/120,0)</f>
+      <c r="B44">
+        <f>ROUND(SUM(B35:B43)/120,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="C44">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>51</v>
+      </c>
+      <c r="B46">
+        <f>ROUND(SUM(B35:B44)/10,0)</f>
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48">
+        <f>SUM(B35:B46)</f>
+        <v>93</v>
+      </c>
+      <c r="C48">
+        <f>C32-SUM(C35:C46)</f>
+        <v>238.29999999999995</v>
+      </c>
+      <c r="G48">
+        <f>G32+SUM(G35:G46)</f>
+        <v>2116.8000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53">
+        <f>C48-C51</f>
+        <v>198.29999999999995</v>
       </c>
     </row>
   </sheetData>
